--- a/cosi/lab1/mod/lab3/lab3.xlsx
+++ b/cosi/lab1/mod/lab3/lab3.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>p1</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>p1211</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>1*P(1)</t>
+  </si>
+  <si>
+    <t>2*P(2)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>(1-p2)p1 + (1-p1)p2 + (1-p1)(1-p2)</t>
+  </si>
+  <si>
+    <t>(1-p2)p1 + (1-p1)p2 + p1p2</t>
   </si>
 </sst>
 </file>
@@ -97,9 +115,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +125,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,18 +186,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Акцент1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Акцент1" xfId="3" builtinId="31"/>
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,239 +602,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:13">
-      <c r="G2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0.1439</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="E2" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="7:13">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.2712</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="E3" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="7:13">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="7:13">
-      <c r="G5" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.2266</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.19309999999999999</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
-        <f>1-H2</f>
+      <c r="E5" s="12">
+        <f>1-E2</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="7:13">
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
-        <f>1-H3</f>
+      <c r="E6" s="8">
+        <f>1-E3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="7:13">
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="7:13">
-      <c r="G8" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2.98E-2</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H8">
-        <f>H5*H6</f>
+      <c r="E8" s="12">
+        <f>E5*E6</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="7:13">
-      <c r="G9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H9">
-        <f>H2*H3</f>
+      <c r="E9" s="8">
+        <f>E2*E3</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="7:13">
-      <c r="G11" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H11">
-        <f>H2*H6</f>
+      <c r="E11" s="12">
+        <f>E2*E6</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="7:13">
-      <c r="G12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
+        <f>SUM(B2:B11)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H12">
-        <f>H3*H5</f>
+      <c r="E12" s="8">
+        <f>E3*E5</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="7:13">
-      <c r="G14" t="s">
+    <row r="13" spans="1:5">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H14">
-        <f>H11+H12</f>
+      <c r="E14" s="12">
+        <f>E11+E12</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="7:13">
-      <c r="M16">
-        <f>1-0.15/0.76</f>
-        <v>0.80263157894736836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f ca="1">D18*J5 + D20*J8</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M17">
-        <f>0.076-0.15</f>
-        <v>-7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f ca="1">D21*J6+D19*J5+D22*J8+D17*1</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="e">
-        <f ca="1">D18*J2+D20*J11+D23*J8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="e">
-        <f ca="1">D19*J2+D22*J14+D21*J3+D24*J8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="e">
-        <f ca="1">D20*J12</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="e">
-        <f ca="1">D20*J9+D23*J14+D25*J8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B22*(1830/3683.2)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="e">
-        <f ca="1">D22*J9+D24*J14+D26*J8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B23*2.28/6.1</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="e">
-        <f ca="1">D23*2.28/6.1</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B24*0.3/0.76</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="e">
-        <f ca="1">D24*0.3/0.76</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B25*H9</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="e">
-        <f ca="1">D25*J9</f>
-        <v>#NUM!</v>
-      </c>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <f>B3*E5 + B4*E5 + B6*E6</f>
+        <v>0.21812000000000001</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <f>B5*E17 + B9*E17 + B7*E17 + B8*E17 + B10*E17 + B11*E17</f>
+        <v>0.22420999999999996</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12">
+        <f>E11+E12+E9</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B15 + B16</f>
+        <v>0.44233</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14">
+        <f>E12+E11+E8</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16">
+        <f>B7*E9+B8*E9+B9*E9+B10*E16+B11*E16</f>
+        <v>4.1959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cosi/lab1/mod/lab3/lab3.xlsx
+++ b/cosi/lab1/mod/lab3/lab3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kosiak_man/Documents/git/university/cosi/lab1/mod/lab3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="15960" yWindow="5660" windowWidth="11880" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,15 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="150001" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,11 +126,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,10 +203,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,18 +214,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -220,17 +233,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -240,7 +253,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -248,23 +261,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -280,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -301,9 +314,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент1" xfId="2" builtinId="30"/>
@@ -314,13 +327,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,14 +376,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -392,14 +410,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -426,9 +445,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,27 +621,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="22">
-        <v>0.1439</v>
+        <v>0.14854370534167199</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -630,12 +650,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="20">
-        <v>0.2712</v>
+        <v>0.273907160184161</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -644,22 +664,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="22">
-        <v>0.2266</v>
+        <v>0.228251291275433</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20">
-        <v>0.19309999999999999</v>
+        <v>0.19490420634003799</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>4</v>
@@ -669,12 +689,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="22">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8980841268007702E-2</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
@@ -684,22 +704,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="20">
-        <v>7.6300000000000007E-2</v>
+        <v>7.2862588491268004E-2</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="22">
-        <v>2.98E-2</v>
+        <v>2.7178666314625601E-2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>2</v>
@@ -709,12 +729,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="20">
-        <v>1.35E-2</v>
+        <v>1.01585834749748E-2</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>3</v>
@@ -724,22 +744,22 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="22">
-        <v>5.8999999999999999E-3</v>
+        <v>4.0099671611742698E-3</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="20">
-        <v>1.6999999999999999E-3</v>
+        <v>1.20299014835228E-3</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
@@ -749,11 +769,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>1</v>
+        <v>0.99999999999970668</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>7</v>
@@ -763,11 +783,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
@@ -776,24 +796,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
         <f>B3*E5 + B4*E5 + B6*E6</f>
-        <v>0.21812000000000001</v>
+        <v>0.22035380121784148</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
         <f>B5*E17 + B9*E17 + B7*E17 + B8*E17 + B10*E17 + B11*E17</f>
-        <v>0.22420999999999996</v>
+        <v>0.21722190135130304</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>24</v>
@@ -803,13 +823,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="15">
         <f>B15 + B16</f>
-        <v>0.44233</v>
+        <v>0.43757570256914452</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>23</v>
@@ -819,37 +839,37 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16">
         <f>B7*E9+B8*E9+B9*E9+B10*E16+B11*E16</f>
-        <v>4.1959999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>3.7230317331881757E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
     </row>
   </sheetData>
@@ -859,24 +879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cosi/lab1/mod/lab3/lab3.xlsx
+++ b/cosi/lab1/mod/lab3/lab3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="5660" windowWidth="11880" windowHeight="13120"/>
+    <workbookView xWindow="13760" yWindow="2200" windowWidth="11880" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>p1</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>(1-p2)p1 + (1-p1)p2 + p1p2</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -852,6 +855,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="16">
+        <f>B19 /B17</f>
+        <v>8.5083145872339019E-2</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">

--- a/cosi/lab1/mod/lab3/lab3.xlsx
+++ b/cosi/lab1/mod/lab3/lab3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="2200" windowWidth="11880" windowHeight="11920"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -117,13 +117,13 @@
     <t>L</t>
   </si>
   <si>
-    <t>(1-p2)p1 + (1-p1)p2 + (1-p1)(1-p2)</t>
-  </si>
-  <si>
     <t>(1-p2)p1 + (1-p1)p2 + p1p2</t>
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>(1-p2)p1 + (1-p1)p2 + 2*(1-p1)(1-p2)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,12 +301,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -306,7 +326,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
@@ -320,13 +339,18 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="20% - Акцент1" xfId="2" builtinId="30"/>
     <cellStyle name="40% - Акцент1" xfId="3" builtinId="31"/>
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
+    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,10 +664,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>0.14854370534167199</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -654,10 +678,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>0.273907160184161</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -668,20 +692,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>0.228251291275433</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.19490420634003799</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -693,10 +717,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>3.8980841268007702E-2</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -708,20 +732,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>7.2862588491268004E-2</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>2.7178666314625601E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -733,10 +757,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>1.01585834749748E-2</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -748,20 +772,20 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>4.0099671611742698E-3</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>1.20299014835228E-3</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -816,10 +840,10 @@
       </c>
       <c r="B16">
         <f>B5*E17 + B9*E17 + B7*E17 + B8*E17 + B10*E17 + B11*E17</f>
-        <v>0.21722190135130304</v>
+        <v>0.27928530173738969</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="12">
         <f>E11+E12+E9</f>
@@ -827,40 +851,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <f>B15 + B16</f>
-        <v>0.43757570256914452</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="14">
-        <f>E12+E11+E8</f>
-        <v>0.7</v>
+        <v>0.49963910295523117</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="13">
+        <f>E12+E11+2*E8</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16">
-        <f>B7*E9+B8*E9+B9*E9+B10*E16+B11*E16</f>
-        <v>3.7230317331881757E-2</v>
+      <c r="B19" s="15">
+        <f>1*(B8 + B9) + 2*(B10+B11)</f>
+        <v>4.7763164408653504E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="15">
         <f>B19 /B17</f>
-        <v>8.5083145872339019E-2</v>
+        <v>9.5595328960738274E-2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
